--- a/datamining/final_data/topic1_candidates.xlsx
+++ b/datamining/final_data/topic1_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.34096</v>
+        <v>0.8478143333333332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1034</v>
+        <v>0.8421023333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9573199999999999</v>
+        <v>0.685778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.25306</v>
+        <v>0.6458865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05704</v>
+        <v>0.5820335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07944</v>
+        <v>0.5433193333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.77635</v>
+        <v>0.4947085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.54752</v>
+        <v>0.4433111666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04026</v>
+        <v>0.4321048333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0332</v>
+        <v>0.4283103333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.64146</v>
+        <v>0.422296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08953</v>
+        <v>0.421913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.17037</v>
+        <v>0.3981911666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.95102</v>
+        <v>0.3867231666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.15476</v>
+        <v>0.3794825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09829</v>
+        <v>0.3749209999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.14255</v>
+        <v>0.3011903333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.36592</v>
+        <v>0.3009508333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.17647</v>
+        <v>0.2974685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.74568</v>
+        <v>0.2896041666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.21125</v>
+        <v>0.283272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.11171</v>
+        <v>0.2807503333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08773</v>
+        <v>0.2770415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05363</v>
+        <v>0.2752025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.17545</v>
+        <v>0.274377</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.35563</v>
+        <v>0.2683356666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04856</v>
+        <v>0.2641758333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.21461</v>
+        <v>0.263788</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.53484</v>
+        <v>0.2564283333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.18415</v>
+        <v>0.2535771666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.19618</v>
+        <v>0.24895</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.47203</v>
+        <v>0.2485876666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.12724</v>
+        <v>0.246743</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.30681</v>
+        <v>0.2427253333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09435</v>
+        <v>0.2415845</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03673</v>
+        <v>0.2368023333333334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.17044</v>
+        <v>0.214896</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05835</v>
+        <v>0.2073611666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.22159</v>
+        <v>0.2045723333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.10915</v>
+        <v>0.2035151666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.16445</v>
+        <v>0.2019868333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.35738</v>
+        <v>0.1898571666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02869</v>
+        <v>0.1852913333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.29387</v>
+        <v>0.1819665</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.39665</v>
+        <v>0.1782366666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.23751</v>
+        <v>0.1770523333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.08643000000000001</v>
+        <v>0.1668901666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.13224</v>
+        <v>0.159439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.05011</v>
+        <v>0.156463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.34313</v>
+        <v>0.1555673333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3914</v>
+        <v>0.1552881666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2285</v>
+        <v>0.1537848333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.17985</v>
+        <v>0.1529796666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.11648</v>
+        <v>0.152316</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2026</v>
+        <v>0.1413056666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.48288</v>
+        <v>0.1376723333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.22001</v>
+        <v>0.1282426666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.33784</v>
+        <v>0.126509</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02586</v>
+        <v>0.1258836666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.38481</v>
+        <v>0.1184601666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.66762</v>
+        <v>0.1167476666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.49401</v>
+        <v>0.1165475</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06822</v>
+        <v>0.1139146666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.13913</v>
+        <v>0.1118216666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.21833</v>
+        <v>0.1094116666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.30798</v>
+        <v>0.1060178333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.22187</v>
+        <v>0.1023825</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.21235</v>
+        <v>0.09739383333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.13725</v>
+        <v>0.09695933333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.26483</v>
+        <v>0.09474733333333335</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.03909</v>
+        <v>0.08806783333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.51522</v>
+        <v>0.08326983333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.49367</v>
+        <v>0.07934616666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06754</v>
+        <v>0.07902133333333335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08744</v>
+        <v>0.07287983333333332</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.13879</v>
+        <v>0.07261583333333334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.26012</v>
+        <v>0.07000166666666666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5443</v>
+        <v>0.06725283333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.19398</v>
+        <v>0.05955566666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2419</v>
+        <v>0.05609433333333334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.34672</v>
+        <v>0.05560366666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04313</v>
+        <v>0.05021966666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.37866</v>
+        <v>0.04756933333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.18204</v>
+        <v>0.0463435</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.29709</v>
+        <v>0.04360733333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.23675</v>
+        <v>0.03455316666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6169</v>
+        <v>0.03311666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04173</v>
+        <v>0.032191</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.14492</v>
+        <v>0.0316245</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.34779</v>
+        <v>0.02873983333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.29828</v>
+        <v>0.02829616666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.35673</v>
+        <v>0.025636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.39286</v>
+        <v>0.02455116666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.09332</v>
+        <v>0.02429466666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.34981</v>
+        <v>0.023487</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04647</v>
+        <v>0.014492</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4848</v>
+        <v>0.01356416666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.33762</v>
+        <v>0.01326833333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.20968</v>
+        <v>0.01070816666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.18283</v>
+        <v>0.008386833333333329</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic1_candidates.xlsx
+++ b/datamining/final_data/topic1_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8478143333333332</v>
+        <v>0.8947251666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8421023333333333</v>
+        <v>0.8720571666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.685778</v>
+        <v>0.8710283333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6458865</v>
+        <v>0.8484923333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5820335</v>
+        <v>0.720955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5433193333333334</v>
+        <v>0.6863161666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4947085</v>
+        <v>0.659797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4433111666666666</v>
+        <v>0.6376453333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4321048333333333</v>
+        <v>0.6291181666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4283103333333333</v>
+        <v>0.6006556666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.422296</v>
+        <v>0.5758203333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.421913</v>
+        <v>0.543731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3981911666666667</v>
+        <v>0.5338166666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3867231666666666</v>
+        <v>0.5338166666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3794825</v>
+        <v>0.5033375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3749209999999999</v>
+        <v>0.4878905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3011903333333333</v>
+        <v>0.4383608333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3009508333333333</v>
+        <v>0.4380033333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2974685</v>
+        <v>0.4287883333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2896041666666667</v>
+        <v>0.4283103333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.283272</v>
+        <v>0.4283103333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2807503333333333</v>
+        <v>0.412918</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2770415</v>
+        <v>0.4113501666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2752025</v>
+        <v>0.3783968333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.274377</v>
+        <v>0.3748695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2683356666666666</v>
+        <v>0.3710091666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2641758333333333</v>
+        <v>0.3663781666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.263788</v>
+        <v>0.3442735</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2564283333333333</v>
+        <v>0.3424525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2535771666666667</v>
+        <v>0.3272538333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.24895</v>
+        <v>0.3197415</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2485876666666667</v>
+        <v>0.2819111666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.246743</v>
+        <v>0.2803688333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2427253333333333</v>
+        <v>0.2755355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2415845</v>
+        <v>0.2693228333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2368023333333334</v>
+        <v>0.2669301666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.214896</v>
+        <v>0.2653001666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2073611666666667</v>
+        <v>0.2643796666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2045723333333333</v>
+        <v>0.2628163333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2035151666666667</v>
+        <v>0.2563153333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2019868333333333</v>
+        <v>0.2558463333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1898571666666667</v>
+        <v>0.254156</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1852913333333333</v>
+        <v>0.2485876666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1819665</v>
+        <v>0.2464556666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1782366666666667</v>
+        <v>0.221148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1770523333333333</v>
+        <v>0.2210271666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1668901666666666</v>
+        <v>0.2200708333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.159439</v>
+        <v>0.2163708333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.156463</v>
+        <v>0.20761</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1555673333333333</v>
+        <v>0.2004955</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1552881666666667</v>
+        <v>0.199688</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1537848333333333</v>
+        <v>0.1996575</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1529796666666667</v>
+        <v>0.1968385</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.152316</v>
+        <v>0.1785175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1413056666666667</v>
+        <v>0.1782281666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1376723333333333</v>
+        <v>0.1758436666666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1282426666666667</v>
+        <v>0.1670878333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.126509</v>
+        <v>0.1636103333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1258836666666667</v>
+        <v>0.1614973333333334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1184601666666667</v>
+        <v>0.1547765</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1167476666666667</v>
+        <v>0.1434613333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1165475</v>
+        <v>0.1404636666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1139146666666667</v>
+        <v>0.1289815</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1118216666666667</v>
+        <v>0.1241458333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1094116666666667</v>
+        <v>0.11812</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1060178333333333</v>
+        <v>0.1124503333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1023825</v>
+        <v>0.1078803333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.09739383333333333</v>
+        <v>0.105433</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.09695933333333333</v>
+        <v>0.1042721666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09474733333333335</v>
+        <v>0.1024468333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08806783333333333</v>
+        <v>0.09716833333333334</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08326983333333333</v>
+        <v>0.08872916666666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.07934616666666666</v>
+        <v>0.08295466666666668</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.07902133333333335</v>
+        <v>0.08174766666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.07287983333333332</v>
+        <v>0.07856566666666664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.07261583333333334</v>
+        <v>0.07345549999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.07000166666666666</v>
+        <v>0.07261583333333334</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.06725283333333333</v>
+        <v>0.07000166666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.05955566666666667</v>
+        <v>0.06965299999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.05609433333333334</v>
+        <v>0.06391100000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05560366666666666</v>
+        <v>0.05490999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05021966666666666</v>
+        <v>0.053492</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.04756933333333333</v>
+        <v>0.05045183333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0463435</v>
+        <v>0.04755716666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04360733333333334</v>
+        <v>0.04541283333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03455316666666667</v>
+        <v>0.04291949999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03311666666666667</v>
+        <v>0.04071166666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.032191</v>
+        <v>0.0373135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0316245</v>
+        <v>0.03727833333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02873983333333333</v>
+        <v>0.035755</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02829616666666667</v>
+        <v>0.03526383333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.025636</v>
+        <v>0.03349733333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02455116666666666</v>
+        <v>0.03330816666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02429466666666667</v>
+        <v>0.03211266666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.023487</v>
+        <v>0.03103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.014492</v>
+        <v>0.02895333333333332</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01356416666666667</v>
+        <v>0.02454033333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01326833333333333</v>
+        <v>0.02362266666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01070816666666666</v>
+        <v>0.01368666666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.008386833333333329</v>
+        <v>0.01044666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic1_candidates.xlsx
+++ b/datamining/final_data/topic1_candidates.xlsx
@@ -482,961 +482,961 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.720955</v>
+        <v>0.6863161666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6863161666666666</v>
+        <v>0.6291181666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.659797</v>
+        <v>0.5758203333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6376453333333333</v>
+        <v>0.5518805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6291181666666666</v>
+        <v>0.543731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6006556666666666</v>
+        <v>0.5338166666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5758203333333334</v>
+        <v>0.5338166666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.543731</v>
+        <v>0.5033375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5338166666666667</v>
+        <v>0.4383608333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5338166666666667</v>
+        <v>0.4287883333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5033375</v>
+        <v>0.4283103333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4878905</v>
+        <v>0.4283103333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4383608333333333</v>
+        <v>0.4192036666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4380033333333333</v>
+        <v>0.412918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4287883333333333</v>
+        <v>0.4113501666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4283103333333333</v>
+        <v>0.3748695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4283103333333333</v>
+        <v>0.3636045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.412918</v>
+        <v>0.3575783333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4113501666666667</v>
+        <v>0.3445581666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3783968333333333</v>
+        <v>0.3442735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3748695</v>
+        <v>0.3385993333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3710091666666667</v>
+        <v>0.3275036666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3663781666666666</v>
+        <v>0.3109376666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3442735</v>
+        <v>0.30656</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3424525</v>
+        <v>0.2825796666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3272538333333334</v>
+        <v>0.2819111666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3197415</v>
+        <v>0.2755355</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2819111666666667</v>
+        <v>0.2693228333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2803688333333333</v>
+        <v>0.2693228333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2755355</v>
+        <v>0.2669301666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2693228333333333</v>
+        <v>0.2653001666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2669301666666667</v>
+        <v>0.2612325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2653001666666667</v>
+        <v>0.2576401666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2643796666666666</v>
+        <v>0.2558463333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2628163333333333</v>
+        <v>0.254156</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2563153333333333</v>
+        <v>0.2485876666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2558463333333333</v>
+        <v>0.2464556666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.254156</v>
+        <v>0.221148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2485876666666667</v>
+        <v>0.2163708333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2464556666666667</v>
+        <v>0.2107176666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.221148</v>
+        <v>0.20761</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2210271666666667</v>
+        <v>0.2034353333333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2200708333333333</v>
+        <v>0.2004955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2163708333333333</v>
+        <v>0.1968385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.20761</v>
+        <v>0.1827121666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2004955</v>
+        <v>0.1758436666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.199688</v>
+        <v>0.1750451666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1996575</v>
+        <v>0.1658348333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1968385</v>
+        <v>0.1636103333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1785175</v>
+        <v>0.1614973333333334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1782281666666666</v>
+        <v>0.1547765</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1758436666666666</v>
+        <v>0.1434613333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1670878333333333</v>
+        <v>0.1289815</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1636103333333333</v>
+        <v>0.12831</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1614973333333334</v>
+        <v>0.1241458333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1547765</v>
+        <v>0.11812</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1434613333333333</v>
+        <v>0.1124503333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1404636666666667</v>
+        <v>0.1078803333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1289815</v>
+        <v>0.105433</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1241458333333333</v>
+        <v>0.1024468333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.11812</v>
+        <v>0.100904</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1124503333333333</v>
+        <v>0.08295466666666668</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1078803333333333</v>
+        <v>0.08174766666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.105433</v>
+        <v>0.07856566666666664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1042721666666667</v>
+        <v>0.07345549999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1024468333333333</v>
+        <v>0.07261583333333334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09716833333333334</v>
+        <v>0.07000166666666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08872916666666666</v>
+        <v>0.06965299999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08295466666666668</v>
+        <v>0.06391100000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08174766666666666</v>
+        <v>0.05529666666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.07856566666666664</v>
+        <v>0.053492</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.07345549999999999</v>
+        <v>0.052731</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.07261583333333334</v>
+        <v>0.051626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07000166666666666</v>
+        <v>0.04755716666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.06965299999999999</v>
+        <v>0.04291949999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06391100000000001</v>
+        <v>0.04146399999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05490999999999999</v>
+        <v>0.04071166666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.053492</v>
+        <v>0.03767883333333332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05045183333333333</v>
+        <v>0.03759266666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04755716666666666</v>
+        <v>0.0373135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04541283333333334</v>
+        <v>0.03727833333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04291949999999999</v>
+        <v>0.035755</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04071166666666666</v>
+        <v>0.03467316666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0373135</v>
+        <v>0.03371066666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03727833333333333</v>
+        <v>0.03349733333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.035755</v>
+        <v>0.03349733333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.03526383333333333</v>
+        <v>0.03330816666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03349733333333334</v>
+        <v>0.02897833333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03330816666666667</v>
+        <v>0.02895333333333332</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03211266666666667</v>
+        <v>0.02454033333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03103</v>
+        <v>0.02362266666666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02895333333333332</v>
+        <v>0.02093416666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02454033333333333</v>
+        <v>0.01820066666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.02362266666666666</v>
+        <v>0.01368666666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01368666666666666</v>
+        <v>0.01044666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01044666666666667</v>
+        <v>0.009902333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic1_candidates.xlsx
+++ b/datamining/final_data/topic1_candidates.xlsx
@@ -446,27 +446,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8947251666666667</v>
+        <v>0.8657939583333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8720571666666667</v>
+        <v>0.8450554166666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8710283333333333</v>
+        <v>0.8437989583333334</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8484923333333334</v>
+        <v>0.8209979166666668</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6863161666666666</v>
+        <v>0.6635777083333334</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6291181666666666</v>
+        <v>0.6028002083333333</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5758203333333334</v>
+        <v>0.5504629166666667</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5518805</v>
+        <v>0.532995625</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.543731</v>
+        <v>0.51912375</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5338166666666667</v>
+        <v>0.5182733333333334</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5338166666666667</v>
+        <v>0.5182733333333334</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5033375</v>
+        <v>0.487834375</v>
       </c>
     </row>
     <row r="14">
@@ -566,67 +566,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4383608333333333</v>
+        <v>0.4211760416666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4287883333333333</v>
+        <v>0.4053545833333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4283103333333333</v>
+        <v>0.4004927083333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4283103333333333</v>
+        <v>0.3991879166666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4192036666666667</v>
+        <v>0.3985079166666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.412918</v>
+        <v>0.3985079166666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4113501666666667</v>
+        <v>0.3842025</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3748695</v>
+        <v>0.345936875</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3636045</v>
+        <v>0.338758125</v>
       </c>
     </row>
     <row r="23">
@@ -656,17 +656,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3575783333333333</v>
+        <v>0.3331204166666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3445581666666667</v>
+        <v>0.3273741666666667</v>
       </c>
     </row>
     <row r="25">
@@ -676,17 +676,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3442735</v>
+        <v>0.322609375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3385993333333334</v>
+        <v>0.3171202083333333</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3275036666666666</v>
+        <v>0.3062670833333333</v>
       </c>
     </row>
     <row r="28">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3109376666666667</v>
+        <v>0.2868445833333333</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.30656</v>
+        <v>0.28556</v>
       </c>
     </row>
     <row r="30">
@@ -726,127 +726,127 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2825796666666667</v>
+        <v>0.2618270833333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2819111666666667</v>
+        <v>0.259036875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2755355</v>
+        <v>0.2577327083333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2693228333333333</v>
+        <v>0.2574964583333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2693228333333333</v>
+        <v>0.2439460416666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2669301666666667</v>
+        <v>0.2439460416666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2653001666666667</v>
+        <v>0.2415502083333334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2612325</v>
+        <v>0.2397379166666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('다음', '같')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2576401666666667</v>
+        <v>0.239365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2558463333333333</v>
+        <v>0.238635625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.254156</v>
+        <v>0.2312827083333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2485876666666667</v>
+        <v>0.2237995833333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2464556666666667</v>
+        <v>0.2192545833333333</v>
       </c>
     </row>
     <row r="43">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.221148</v>
+        <v>0.2109625</v>
       </c>
     </row>
     <row r="44">
@@ -866,27 +866,27 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2163708333333333</v>
+        <v>0.1989760416666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2107176666666666</v>
+        <v>0.19613</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.20761</v>
+        <v>0.1899270833333333</v>
       </c>
     </row>
     <row r="47">
@@ -896,47 +896,47 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2034353333333334</v>
+        <v>0.1816891666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2004955</v>
+        <v>0.181548125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1968385</v>
+        <v>0.174581875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('간', '상호', '작용')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1827121666666667</v>
+        <v>0.1706220833333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1758436666666666</v>
+        <v>0.1594652083333333</v>
       </c>
     </row>
     <row r="52">
@@ -946,47 +946,47 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1750451666666666</v>
+        <v>0.1584239583333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1658348333333333</v>
+        <v>0.1503554166666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1636103333333333</v>
+        <v>0.145485625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1614973333333334</v>
+        <v>0.1432035416666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1547765</v>
+        <v>0.1343166666666667</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1434613333333333</v>
+        <v>0.1312516666666667</v>
       </c>
     </row>
     <row r="58">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1289815</v>
+        <v>0.119421875</v>
       </c>
     </row>
     <row r="59">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.12831</v>
+        <v>0.1092625</v>
       </c>
     </row>
     <row r="60">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1241458333333333</v>
+        <v>0.1091172916666667</v>
       </c>
     </row>
     <row r="61">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.11812</v>
+        <v>0.10628</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1124503333333333</v>
+        <v>0.09769541666666669</v>
       </c>
     </row>
     <row r="63">
@@ -1056,57 +1056,57 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1078803333333333</v>
+        <v>0.09130541666666668</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.105433</v>
+        <v>0.08905104166666668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1024468333333333</v>
+        <v>0.08524000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.100904</v>
+        <v>0.08283875000000003</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08295466666666668</v>
+        <v>0.07145958333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08174766666666666</v>
+        <v>0.07095583333333336</v>
       </c>
     </row>
     <row r="69">
@@ -1116,17 +1116,17 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.07856566666666664</v>
+        <v>0.06554458333333331</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.07345549999999999</v>
+        <v>0.06511958333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1136,17 +1136,17 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.07261583333333334</v>
+        <v>0.06491979166666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.07000166666666666</v>
+        <v>0.06281687499999999</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.06965299999999999</v>
+        <v>0.06117375</v>
       </c>
     </row>
     <row r="74">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06391100000000001</v>
+        <v>0.05755625000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.05529666666666666</v>
+        <v>0.04928833333333334</v>
       </c>
     </row>
     <row r="76">
@@ -1186,27 +1186,27 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.053492</v>
+        <v>0.0484875</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.052731</v>
+        <v>0.04284</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.051626</v>
+        <v>0.03987375</v>
       </c>
     </row>
     <row r="79">
@@ -1216,77 +1216,77 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04755716666666666</v>
+        <v>0.03958645833333332</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.04291949999999999</v>
+        <v>0.03401708333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.04146399999999999</v>
+        <v>0.03401187499999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04071166666666666</v>
+        <v>0.032974375</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03767883333333332</v>
+        <v>0.0322475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.03759266666666667</v>
+        <v>0.03006041666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0373135</v>
+        <v>0.02894604166666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03727833333333333</v>
+        <v>0.02864583333333334</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.035755</v>
+        <v>0.02801124999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1306,17 +1306,17 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03467316666666666</v>
+        <v>0.02771645833333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03371066666666667</v>
+        <v>0.02729020833333333</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03349733333333334</v>
+        <v>0.02677166666666667</v>
       </c>
     </row>
     <row r="91">
@@ -1336,17 +1336,17 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03349733333333334</v>
+        <v>0.02677166666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.03330816666666667</v>
+        <v>0.02410583333333333</v>
       </c>
     </row>
     <row r="93">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02897833333333333</v>
+        <v>0.02398291666666666</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02895333333333332</v>
+        <v>0.02335416666666666</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02454033333333333</v>
+        <v>0.02060791666666667</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02362266666666666</v>
+        <v>0.01952333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -1396,27 +1396,27 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02093416666666667</v>
+        <v>0.01705020833333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01820066666666666</v>
+        <v>0.008100833333333324</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01368666666666666</v>
+        <v>0.007068333333333329</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01044666666666667</v>
+        <v>0.005355833333333334</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.009902333333333332</v>
+        <v>0.001840416666666664</v>
       </c>
     </row>
   </sheetData>
